--- a/cyclicLoading/Ejemplos/ATC_base.xlsx
+++ b/cyclicLoading/Ejemplos/ATC_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Loading</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,6 +457,9 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -460,6 +468,9 @@
       <c r="B3" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.01587301587301587</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -468,6 +479,9 @@
       <c r="B4" t="n">
         <v>-0.02083333333333333</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.03174603174603174</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,6 +490,9 @@
       <c r="B5" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.04761904761904762</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -484,6 +501,9 @@
       <c r="B6" t="n">
         <v>-0.02083333333333333</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.06349206349206349</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -492,6 +512,9 @@
       <c r="B7" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.07936507936507936</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -500,6 +523,9 @@
       <c r="B8" t="n">
         <v>-0.02083333333333333</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.09523809523809523</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -508,6 +534,9 @@
       <c r="B9" t="n">
         <v>0.04166666666666666</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -516,6 +545,9 @@
       <c r="B10" t="n">
         <v>-0.04166666666666666</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.126984126984127</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -524,6 +556,9 @@
       <c r="B11" t="n">
         <v>0.04166666666666666</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -532,6 +567,9 @@
       <c r="B12" t="n">
         <v>-0.04166666666666666</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.1587301587301587</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -540,6 +578,9 @@
       <c r="B13" t="n">
         <v>0.04166666666666666</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.1746031746031746</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -548,6 +589,9 @@
       <c r="B14" t="n">
         <v>-0.04166666666666666</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.1904761904761905</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -556,6 +600,9 @@
       <c r="B15" t="n">
         <v>0.0625</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.2063492063492063</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -564,6 +611,9 @@
       <c r="B16" t="n">
         <v>-0.0625</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -572,6 +622,9 @@
       <c r="B17" t="n">
         <v>0.0625</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.2380952380952381</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -580,6 +633,9 @@
       <c r="B18" t="n">
         <v>-0.0625</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.253968253968254</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -588,6 +644,9 @@
       <c r="B19" t="n">
         <v>0.0625</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.2698412698412698</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -596,6 +655,9 @@
       <c r="B20" t="n">
         <v>-0.0625</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -604,6 +666,9 @@
       <c r="B21" t="n">
         <v>0.08333333333333333</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.3015873015873016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -612,6 +677,9 @@
       <c r="B22" t="n">
         <v>-0.08333333333333333</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.3174603174603174</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -620,6 +688,9 @@
       <c r="B23" t="n">
         <v>0.08333333333333333</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -628,6 +699,9 @@
       <c r="B24" t="n">
         <v>-0.08333333333333333</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.3492063492063492</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -636,6 +710,9 @@
       <c r="B25" t="n">
         <v>0.08333333333333333</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.3650793650793651</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -644,6 +721,9 @@
       <c r="B26" t="n">
         <v>-0.08333333333333333</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3809523809523809</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -652,6 +732,9 @@
       <c r="B27" t="n">
         <v>0.125</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.3968253968253968</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -660,6 +743,9 @@
       <c r="B28" t="n">
         <v>-0.125</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.4126984126984127</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -668,6 +754,9 @@
       <c r="B29" t="n">
         <v>0.125</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -676,6 +765,9 @@
       <c r="B30" t="n">
         <v>-0.125</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -684,6 +776,9 @@
       <c r="B31" t="n">
         <v>0.125</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.4603174603174603</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -692,6 +787,9 @@
       <c r="B32" t="n">
         <v>-0.125</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.4761904761904762</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -700,6 +798,9 @@
       <c r="B33" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.492063492063492</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -708,6 +809,9 @@
       <c r="B34" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5079365079365079</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -716,6 +820,9 @@
       <c r="B35" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5238095238095237</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -724,6 +831,9 @@
       <c r="B36" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5396825396825397</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -732,6 +842,9 @@
       <c r="B37" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -740,6 +853,9 @@
       <c r="B38" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -748,6 +864,9 @@
       <c r="B39" t="n">
         <v>0.25</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5873015873015872</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -756,6 +875,9 @@
       <c r="B40" t="n">
         <v>-0.25</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.6031746031746031</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -764,6 +886,9 @@
       <c r="B41" t="n">
         <v>0.25</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.6190476190476191</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -772,6 +897,9 @@
       <c r="B42" t="n">
         <v>-0.25</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.6349206349206349</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -780,6 +908,9 @@
       <c r="B43" t="n">
         <v>0.25</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.6507936507936507</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -788,6 +919,9 @@
       <c r="B44" t="n">
         <v>-0.25</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -796,6 +930,9 @@
       <c r="B45" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6825396825396826</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -804,6 +941,9 @@
       <c r="B46" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.6984126984126984</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -812,6 +952,9 @@
       <c r="B47" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.7142857142857142</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -820,6 +963,9 @@
       <c r="B48" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.7301587301587301</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -828,6 +974,9 @@
       <c r="B49" t="n">
         <v>0.5</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.746031746031746</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -836,6 +985,9 @@
       <c r="B50" t="n">
         <v>-0.5</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.7619047619047619</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -844,6 +996,9 @@
       <c r="B51" t="n">
         <v>0.5</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.7777777777777777</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -852,6 +1007,9 @@
       <c r="B52" t="n">
         <v>-0.5</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.7936507936507936</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -860,6 +1018,9 @@
       <c r="B53" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.8095238095238095</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -868,6 +1029,9 @@
       <c r="B54" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.8253968253968254</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -876,6 +1040,9 @@
       <c r="B55" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.8412698412698412</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -884,6 +1051,9 @@
       <c r="B56" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -892,6 +1062,9 @@
       <c r="B57" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.873015873015873</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -900,6 +1073,9 @@
       <c r="B58" t="n">
         <v>-0.8333333333333334</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.8888888888888888</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -908,6 +1084,9 @@
       <c r="B59" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.9047619047619047</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -916,6 +1095,9 @@
       <c r="B60" t="n">
         <v>-0.8333333333333334</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.9206349206349206</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -924,6 +1106,9 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.9365079365079365</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -932,6 +1117,9 @@
       <c r="B62" t="n">
         <v>-1</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.9523809523809523</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -940,6 +1128,9 @@
       <c r="B63" t="n">
         <v>1</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.9682539682539681</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -948,6 +1139,9 @@
       <c r="B64" t="n">
         <v>-1</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.9841269841269841</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -955,6 +1149,9 @@
       </c>
       <c r="B65" t="n">
         <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
